--- a/biology/Histoire de la zoologie et de la botanique/Rosemary_G._Gillespie/Rosemary_G._Gillespie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rosemary_G._Gillespie/Rosemary_G._Gillespie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosemary G. Gillespie, née le 5 juin 1957[1], est une arachnologiste et biologiste de l'évolution américaine.
-Elle est diplômée de l'université du Tennessee et travaille à l'université de Californie à Berkeley[2]. C'est une spécialiste de l'arachnofaune océanienne et de la biodiversité insulaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosemary G. Gillespie, née le 5 juin 1957, est une arachnologiste et biologiste de l'évolution américaine.
+Elle est diplômée de l'université du Tennessee et travaille à l'université de Californie à Berkeley. C'est une spécialiste de l'arachnofaune océanienne et de la biodiversité insulaire.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2005 Presidential Award for Excellence in Science, Mathematics, and Engineering Mentoring (PAESMEM)[3].
-2019 IBS Alfred Russel Wallace Award[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2005 Presidential Award for Excellence in Science, Mathematics, and Engineering Mentoring (PAESMEM).
+2019 IBS Alfred Russel Wallace Award.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Havaika gillespieae Prószynski, 2008</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Argyrodes ilipoepoe Rivera &amp; Gillespie, 2010
